--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{7E6F7240-4724-AD40-8B72-CCFD4BF91773}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19420" xr2:uid="{7E6F7240-4724-AD40-8B72-CCFD4BF91773}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Retweet</t>
   </si>
@@ -117,6 +117,99 @@
   </si>
   <si>
     <t>Total Tweets</t>
+  </si>
+  <si>
+    <t>https://lytictest.herokuapp.com</t>
+  </si>
+  <si>
+    <t>gop</t>
+  </si>
+  <si>
+    <t>nomine</t>
+  </si>
+  <si>
+    <t>kasi</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>republican</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>kasiedc</t>
+  </si>
+  <si>
+    <t>racist</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>timkain</t>
+  </si>
+  <si>
+    <t>kain</t>
+  </si>
+  <si>
+    <t>nehlen</t>
+  </si>
+  <si>
+    <t>endors</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>corey</t>
+  </si>
+  <si>
+    <t>stewart</t>
+  </si>
+  <si>
+    <t>senat</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>realdonaldtrump</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>victori</t>
+  </si>
+  <si>
+    <t>congratul</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>stiff</t>
   </si>
 </sst>
 </file>
@@ -187,7 +280,105 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -410,6 +601,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58C4-AA4D-88C2-02A4E261D680}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -429,6 +625,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-58C4-AA4D-88C2-02A4E261D680}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -747,6 +948,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-20A7-1148-A66C-0A7F6622AEF6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -766,6 +972,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-20A7-1148-A66C-0A7F6622AEF6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4339,25 +4550,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC226455-A92D-5649-84D9-D77776F7B51F}" name="Table1" displayName="Table1" ref="G37:H43" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BC226455-A92D-5649-84D9-D77776F7B51F}" name="Table1" displayName="Table1" ref="G37:H43" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="G37:H43" xr:uid="{41AADF30-9514-2A46-814B-A5FD3240D1F7}"/>
   <sortState ref="G38:H43">
     <sortCondition descending="1" ref="H37:H43"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3FFA438E-76BB-2041-B0D6-ABFFD039F107}" name="screenName" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EE671465-6270-C84B-8C61-FB5289BCFC95}" name="Retweet Sum" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3FFA438E-76BB-2041-B0D6-ABFFD039F107}" name="screenName" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EE671465-6270-C84B-8C61-FB5289BCFC95}" name="Retweet Sum" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD641349-052F-9647-ACC9-B5026DDAE11F}" name="Table2" displayName="Table2" ref="G50:H56" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD641349-052F-9647-ACC9-B5026DDAE11F}" name="Table2" displayName="Table2" ref="G50:H56" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="G50:H56" xr:uid="{308E27E2-71E4-A647-9C06-8F4EEFCA4A36}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1DD3B065-F4AC-7444-9225-C8A986CEF1D7}" name="screenName" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{6581E838-8D57-2C4D-B737-1C26B7620C13}" name="Retween Sum" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1DD3B065-F4AC-7444-9225-C8A986CEF1D7}" name="screenName" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6581E838-8D57-2C4D-B737-1C26B7620C13}" name="Retween Sum" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86945802-B4F8-5A4F-A790-D483FA1D4C5D}" name="Table3" displayName="Table3" ref="L83:M98" totalsRowShown="0" dataDxfId="5" headerRowCellStyle="Bad" dataCellStyle="Bad">
+  <autoFilter ref="L83:M98" xr:uid="{0356A5D1-B245-3642-B232-DFD96157AD70}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E3614E51-E944-634A-A6A9-4B547B02EC3C}" name="Words" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{13CA6340-98F0-8C41-AED0-03F906F90511}" name="Frequency" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5CF9BD5-F574-E94A-9BD7-D4CD76DF2E76}" name="Table4" displayName="Table4" ref="P83:Q98" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="P83:Q98" xr:uid="{32ABD45D-2BED-5743-BE54-9452C8305256}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C86F9FF7-9AB3-3A44-8B9E-93F93A54FFEB}" name="Words" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{37891ECC-86D4-EE45-8B50-C2F38009A9D5}" name="Frequency" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4660,17 +4893,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D02D7-52C0-634E-9AD0-79A5749D221C}">
-  <dimension ref="G11:Q75"/>
+  <dimension ref="G11:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P79" sqref="P79"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="R81" sqref="R81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
     <col min="17" max="17" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4928,6 +5162,236 @@
     <row r="75" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H75" s="4"/>
     </row>
+    <row r="83" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="L83" t="s">
+        <v>47</v>
+      </c>
+      <c r="M83" t="s">
+        <v>48</v>
+      </c>
+      <c r="P83" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M84" s="4">
+        <v>4690</v>
+      </c>
+      <c r="P84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>11827</v>
+      </c>
+    </row>
+    <row r="85" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L85" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" s="4">
+        <v>3652</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>8643</v>
+      </c>
+    </row>
+    <row r="86" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="4">
+        <v>3207</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q86" s="4">
+        <v>8596</v>
+      </c>
+    </row>
+    <row r="87" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L87" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M87" s="4">
+        <v>3188</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q87" s="4">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="88" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M88" s="4">
+        <v>2953</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q88" s="4">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="89" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M89" s="4">
+        <v>2605</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89" s="4">
+        <v>6793</v>
+      </c>
+    </row>
+    <row r="90" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M90" s="4">
+        <v>2588</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q90" s="4">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="91" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L91" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M91" s="4">
+        <v>2529</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q91" s="4">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="92" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" s="4">
+        <v>2236</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="93" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L93" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M93" s="4">
+        <v>2213</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="94" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M94" s="4">
+        <v>2204</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q94" s="4">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="95" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L95" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M95" s="4">
+        <v>2157</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q95" s="4">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="96" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="L96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M96" s="4">
+        <v>2130</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="97" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M97" s="4">
+        <v>2127</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q97" s="4">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="98" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L98" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" s="4">
+        <v>2073</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q98" s="4">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="99" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="P99" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G38" r:id="rId1" display="C@oreyStewartVA" xr:uid="{061729C7-A908-BA4E-9270-4AC2893AF605}"/>
@@ -4935,9 +5399,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Plots.xlsx
+++ b/Plots.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgesericcolbert/Desktop/Projects/Political Tweets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgesericcolbert/Library/Containers/com.microsoft.Excel/Data/Desktop/Projects/Political Tweets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -527,11 +527,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -559,11 +559,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -594,7 +594,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="20000"/>
                   </a:prstClr>
@@ -618,7 +618,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="20000"/>
                   </a:prstClr>
@@ -632,52 +632,89 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-58C4-AA4D-88C2-02A4E261D680}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-58C4-AA4D-88C2-02A4E261D680}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -687,13 +724,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -738,7 +776,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="1"/>
@@ -757,42 +795,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -805,30 +807,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -874,11 +860,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -901,26 +887,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -928,8 +894,66 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$12:$O$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Original </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Retweet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$13:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24910</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7C2A-7144-A4A3-1821252ED82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -941,7 +965,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="20000"/>
                   </a:prstClr>
@@ -950,7 +974,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-20A7-1148-A66C-0A7F6622AEF6}"/>
+                <c16:uniqueId val="{00000006-7C2A-7144-A4A3-1821252ED82B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -965,7 +989,7 @@
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
                   <a:prstClr val="black">
                     <a:alpha val="20000"/>
                   </a:prstClr>
@@ -974,57 +998,101 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-20A7-1148-A66C-0A7F6622AEF6}"/>
+                <c16:uniqueId val="{00000008-7C2A-7144-A4A3-1821252ED82B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7C2A-7144-A4A3-1821252ED82B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-7C2A-7144-A4A3-1821252ED82B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -1034,13 +1102,14 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525">
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
                     </a:schemeClr>
                   </a:solidFill>
+                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1080,12 +1149,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8807-784F-95F3-E0A327AB3C2A}"/>
+              <c16:uniqueId val="{00000009-7C2A-7144-A4A3-1821252ED82B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1096,92 +1165,12 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1207,10 +1196,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1228,22 +1217,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1272,42 +1255,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1327,8 +1281,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1354,9 +1309,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1434,8 +1389,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
+        <c:gapWidth val="199"/>
         <c:axId val="285587999"/>
         <c:axId val="285589695"/>
       </c:barChart>
@@ -1452,11 +1406,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1468,10 +1422,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1500,9 +1455,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1510,6 +1465,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1528,8 +1497,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1564,28 +1534,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1614,10 +1573,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1628,17 +1587,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1661,17 +1619,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1700,29 +1657,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="84000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="20000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -1740,9 +1681,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1767,9 +1711,9 @@
                   <c:spPr>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
@@ -1847,7 +1791,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="41"/>
+        <c:gapWidth val="199"/>
         <c:axId val="642485983"/>
         <c:axId val="723680271"/>
       </c:barChart>
@@ -1864,8 +1808,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1874,14 +1824,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1902,12 +1851,67 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="642485983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1937,7 +1941,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1963,26 +1967,12 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="68000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="5400000" scaled="1"/>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2050,230 +2040,95 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="24">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
-  <a:schemeClr val="accent2"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
@@ -2292,7 +2147,7 @@
         <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
             <a:alpha val="20000"/>
           </a:prstClr>
@@ -2314,12 +2169,20 @@
         <a:schemeClr val="phClr"/>
       </a:solidFill>
       <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
           <a:prstClr val="black">
-            <a:alpha val="20000"/>
+            <a:alpha val="10000"/>
           </a:prstClr>
         </a:outerShdw>
       </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2332,11 +2195,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2353,10 +2214,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -2383,265 +2247,233 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2651,12 +2483,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2665,13 +2497,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2680,9 +2513,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2692,19 +2525,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2713,16 +2547,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2730,15 +2559,91 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2748,685 +2653,12 @@
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3436,35 +2668,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3473,34 +2715,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3516,16 +2753,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3537,7 +2775,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3548,9 +2786,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3561,14 +2799,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -3580,13 +2818,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3598,7 +2837,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3606,14 +2845,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3625,16 +2864,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3643,14 +2883,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -3662,14 +2902,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3680,26 +2920,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3707,16 +2948,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3729,14 +2971,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3747,20 +2989,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3769,13 +3004,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3784,8 +3020,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3795,7 +3032,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3803,9 +3040,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3816,8 +3053,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3827,68 +3065,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="68000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-        <a:tileRect/>
-      </a:gradFill>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3896,43 +3106,68 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr/>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -3941,26 +3176,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -3973,26 +3191,9 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -4005,20 +3206,10 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr"/>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="84000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="1"/>
-        </a:gradFill>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4033,29 +3224,12 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="phClr"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="phClr">
-              <a:lumMod val="84000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="1"/>
-      </a:gradFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4079,7 +3253,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4087,7 +3261,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4106,13 +3280,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="35000"/>
-          <a:lumOff val="65000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -4130,12 +3304,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4149,7 +3323,7 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -4176,7 +3350,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4193,13 +3367,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4213,12 +3388,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4232,9 +3407,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4245,14 +3420,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4260,7 +3435,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -4273,7 +3448,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4281,7 +3456,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4301,9 +3476,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4314,15 +3489,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr kern="1200">
-      <a:effectLst/>
-    </cs:defRPr>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4338,7 +3511,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4347,7 +3520,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4363,15 +3536,13 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4382,7 +3553,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4476,16 +3647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>404092</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>165099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>565151</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4512,16 +3683,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>759113</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4575,7 +3746,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86945802-B4F8-5A4F-A790-D483FA1D4C5D}" name="Table3" displayName="Table3" ref="L83:M98" totalsRowShown="0" dataDxfId="5" headerRowCellStyle="Bad" dataCellStyle="Bad">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{86945802-B4F8-5A4F-A790-D483FA1D4C5D}" name="Table3" displayName="Table3" ref="L83:M98" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="L83:M98" xr:uid="{0356A5D1-B245-3642-B232-DFD96157AD70}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E3614E51-E944-634A-A6A9-4B547B02EC3C}" name="Words" dataDxfId="4"/>
@@ -4586,11 +3757,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5CF9BD5-F574-E94A-9BD7-D4CD76DF2E76}" name="Table4" displayName="Table4" ref="P83:Q98" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5CF9BD5-F574-E94A-9BD7-D4CD76DF2E76}" name="Table4" displayName="Table4" ref="P83:Q98" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="P83:Q98" xr:uid="{32ABD45D-2BED-5743-BE54-9452C8305256}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C86F9FF7-9AB3-3A44-8B9E-93F93A54FFEB}" name="Words" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{37891ECC-86D4-EE45-8B50-C2F38009A9D5}" name="Frequency" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C86F9FF7-9AB3-3A44-8B9E-93F93A54FFEB}" name="Words" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{37891ECC-86D4-EE45-8B50-C2F38009A9D5}" name="Frequency" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4895,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5D02D7-52C0-634E-9AD0-79A5749D221C}">
   <dimension ref="G11:Q99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
